--- a/biology/Zoologie/Charles_Thomas_Bingham/Charles_Thomas_Bingham.xlsx
+++ b/biology/Zoologie/Charles_Thomas_Bingham/Charles_Thomas_Bingham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Thomas Bingham est un zoologiste britannique, né le 16 avril 1848 en Irlande et mort le 18 octobre 1908 à Londres.
 Il est attaché au Bengal Staff Corps et occupe le poste de conservateur des forêts de Birmanie jusqu’en 1894. Il s’installe alors à Londres où il travaille au British Museum sur les hyménoptères et accessoirement sur les lépidoptères.
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>The Fauna of British India, Including Ceylon and Burma. Hymenoptera. Volume 1. Wasps and Bees. London: Taylor and Francis (1897).
 The Fauna of British India, Including Ceylon and Burma. Hymenoptera, Volume 2. Ants and Cuckoo-wasps. London: Taylor and Francis (1903).
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anthony Musgrave (1932). Bibliography of Australian Entomology, 1775-1930, with biographical notes on authors and collectors, Royal Zoological Society of New South Wales (Sydney) : viii + 380.</t>
         </is>
